--- a/replication/results/tableA1_panel_any_evidence.xlsx
+++ b/replication/results/tableA1_panel_any_evidence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>eq_mix</t>
   </si>
@@ -55,16 +55,19 @@
     <t>(0.12)</t>
   </si>
   <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.14)</t>
-  </si>
-  <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.21)</t>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
@@ -73,7 +76,7 @@
     <t>(0.23)</t>
   </si>
   <si>
-    <t>(0.16)</t>
+    <t>(0.15)</t>
   </si>
 </sst>
 </file>
@@ -471,13 +474,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -517,13 +520,13 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -560,16 +563,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/replication/results/tableA1_panel_any_evidence.xlsx
+++ b/replication/results/tableA1_panel_any_evidence.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>eq_mix</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>drink_def</t>
   </si>
   <si>
     <t>theta</t>
@@ -31,52 +31,58 @@
     <t>lambda_se</t>
   </si>
   <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>proportion_se</t>
+  </si>
+  <si>
     <t>total_dof</t>
   </si>
   <si>
     <t>['all']</t>
   </si>
   <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
     <t>(0.1)</t>
   </si>
   <si>
+    <t>(0.003)</t>
+  </si>
+  <si>
+    <t>['hour']</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
+  </si>
+  <si>
     <t>(0.09)</t>
   </si>
   <si>
-    <t>['hour']</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
-    <t>(0.12)</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
-  </si>
-  <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -511,22 +517,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -557,22 +563,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -580,21 +586,67 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.256</v>
+      </c>
+      <c r="C7">
+        <v>0.237</v>
+      </c>
+      <c r="D7">
+        <v>0.236</v>
+      </c>
+      <c r="E7">
+        <v>0.232</v>
+      </c>
+      <c r="F7">
+        <v>0.183</v>
+      </c>
+      <c r="G7">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>101</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>4068</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>6917</v>
       </c>
     </row>

--- a/replication/results/tableA1_panel_any_evidence.xlsx
+++ b/replication/results/tableA1_panel_any_evidence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>drink_def</t>
   </si>
@@ -46,7 +46,7 @@
     <t>(0.11)</t>
   </si>
   <si>
-    <t>(0.1)</t>
+    <t>(0.09)</t>
   </si>
   <si>
     <t>(0.003)</t>
@@ -58,31 +58,34 @@
     <t>(0.12)</t>
   </si>
   <si>
-    <t>(0.09)</t>
+    <t>(0.08)</t>
   </si>
   <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.22)</t>
+    <t>(0.2)</t>
+  </si>
+  <si>
+    <t>(0.002)</t>
+  </si>
+  <si>
+    <t>['year', 'state', 'weekend', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
   </si>
   <si>
     <t>(0.15)</t>
-  </si>
-  <si>
-    <t>['year', 'state', 'weekend', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
   </si>
 </sst>
 </file>
@@ -480,13 +483,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -523,16 +526,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -569,16 +572,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -621,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
